--- a/Code/Results/Cases/Case_3_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.113369734745106</v>
+        <v>1.255432847381883</v>
       </c>
       <c r="C2">
-        <v>0.5472376117254782</v>
+        <v>0.2318737208821346</v>
       </c>
       <c r="D2">
-        <v>0.01737138155360896</v>
+        <v>0.01861625622255048</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8922431861353601</v>
+        <v>0.8596978838786953</v>
       </c>
       <c r="G2">
-        <v>0.8256516136642489</v>
+        <v>0.7134475634870228</v>
       </c>
       <c r="H2">
-        <v>0.4967488384789362</v>
+        <v>0.7629230913686342</v>
       </c>
       <c r="I2">
-        <v>0.4343681398885195</v>
+        <v>0.6978593141990928</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4111756157411435</v>
+        <v>0.3010685567896303</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5822559498090065</v>
+        <v>1.114843355685437</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.699575201354719</v>
+        <v>1.138903253550609</v>
       </c>
       <c r="C3">
-        <v>0.4850614248673253</v>
+        <v>0.2121045258404592</v>
       </c>
       <c r="D3">
-        <v>0.01680920303286726</v>
+        <v>0.01838677076083073</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8024277661324817</v>
+        <v>0.8443165825569849</v>
       </c>
       <c r="G3">
-        <v>0.7391519471716634</v>
+        <v>0.6981026244201018</v>
       </c>
       <c r="H3">
-        <v>0.463863078374402</v>
+        <v>0.7611619914334682</v>
       </c>
       <c r="I3">
-        <v>0.4125096302966966</v>
+        <v>0.6992619156683588</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3617439645530283</v>
+        <v>0.2896779345044536</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6188715416528616</v>
+        <v>1.129490372969432</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.447023977026561</v>
+        <v>1.067653821679755</v>
       </c>
       <c r="C4">
-        <v>0.4469673043393243</v>
+        <v>0.1998722072248142</v>
       </c>
       <c r="D4">
-        <v>0.0164683175724889</v>
+        <v>0.01824699074694536</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.749208322236413</v>
+        <v>0.835534889404812</v>
       </c>
       <c r="G4">
-        <v>0.688012658597458</v>
+        <v>0.6892925885629353</v>
       </c>
       <c r="H4">
-        <v>0.4447972619998382</v>
+        <v>0.7605618622210244</v>
       </c>
       <c r="I4">
-        <v>0.4003239575912829</v>
+        <v>0.7006216511125416</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3319074218147477</v>
+        <v>0.2828630492595465</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6424956428746569</v>
+        <v>1.138982913117953</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.344424936204746</v>
+        <v>1.03869535343938</v>
       </c>
       <c r="C5">
-        <v>0.4314548673505669</v>
+        <v>0.1948638461757639</v>
       </c>
       <c r="D5">
-        <v>0.01633038594234293</v>
+        <v>0.0181903196149733</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7279648834573038</v>
+        <v>0.8321223300683585</v>
       </c>
       <c r="G5">
-        <v>0.6676256557947937</v>
+        <v>0.685855581282155</v>
       </c>
       <c r="H5">
-        <v>0.4372910240704755</v>
+        <v>0.7604381048565472</v>
       </c>
       <c r="I5">
-        <v>0.3956478904700234</v>
+        <v>0.7013007945368983</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3198652635788335</v>
+        <v>0.2801308851404372</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6523997671297366</v>
+        <v>1.142976647556381</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.327405819556589</v>
+        <v>1.033891450160922</v>
       </c>
       <c r="C6">
-        <v>0.4288794529375366</v>
+        <v>0.1940307877740395</v>
       </c>
       <c r="D6">
-        <v>0.01630753920378325</v>
+        <v>0.0181809271759974</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7244630935120284</v>
+        <v>0.8315656906901268</v>
       </c>
       <c r="G6">
-        <v>0.6642665388653484</v>
+        <v>0.6852940987292584</v>
       </c>
       <c r="H6">
-        <v>0.4360599583511231</v>
+        <v>0.7604248452672806</v>
       </c>
       <c r="I6">
-        <v>0.39488834041844</v>
+        <v>0.7014211085701731</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.317872343924563</v>
+        <v>0.279679925099245</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6540607945236552</v>
+        <v>1.143647378464173</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.445639086732399</v>
+        <v>1.067262967883437</v>
       </c>
       <c r="C7">
-        <v>0.4467580647660725</v>
+        <v>0.1998047581916467</v>
       </c>
       <c r="D7">
-        <v>0.01646645352174758</v>
+        <v>0.01824622527409758</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.748920080457836</v>
+        <v>0.8354881948105799</v>
       </c>
       <c r="G7">
-        <v>0.6877359345826477</v>
+        <v>0.6892456166856959</v>
       </c>
       <c r="H7">
-        <v>0.4446949898646722</v>
+        <v>0.7605597043389025</v>
       </c>
       <c r="I7">
-        <v>0.4002597483645758</v>
+        <v>0.7006303044221838</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3317445619816652</v>
+        <v>0.2828260203797157</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6426281041544648</v>
+        <v>1.139036266198822</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.970337447303962</v>
+        <v>1.215191553143768</v>
       </c>
       <c r="C8">
-        <v>0.5257762481083148</v>
+        <v>0.2250768165724537</v>
       </c>
       <c r="D8">
-        <v>0.01717658762354191</v>
+        <v>0.01853690049803802</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8608493773490693</v>
+        <v>0.8542565814577756</v>
       </c>
       <c r="G8">
-        <v>0.7953904069634206</v>
+        <v>0.7080292213697845</v>
       </c>
       <c r="H8">
-        <v>0.4851636762724922</v>
+        <v>0.7622158689969467</v>
       </c>
       <c r="I8">
-        <v>0.4265618384213994</v>
+        <v>0.6982392662588879</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3940166958560383</v>
+        <v>0.2971038806215773</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5946377452983818</v>
+        <v>1.119789985597755</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.014527277676109</v>
+        <v>1.507643121222429</v>
       </c>
       <c r="C9">
-        <v>0.6818544398521738</v>
+        <v>0.2738905910703693</v>
       </c>
       <c r="D9">
-        <v>0.01860850683754478</v>
+        <v>0.01911554982968511</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.09762356177832</v>
+        <v>0.8963452981688533</v>
       </c>
       <c r="G9">
-        <v>1.024248653796988</v>
+        <v>0.7497525581070477</v>
       </c>
       <c r="H9">
-        <v>0.5744298792100295</v>
+        <v>0.7692920135211097</v>
       </c>
       <c r="I9">
-        <v>0.488962564655921</v>
+        <v>0.6975213846666861</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5208488463140668</v>
+        <v>0.3265273782536298</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5100740862528212</v>
+        <v>1.086012522016407</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.795890009675702</v>
+        <v>1.723947375444482</v>
       </c>
       <c r="C10">
-        <v>0.7979361748574831</v>
+        <v>0.309304591979668</v>
       </c>
       <c r="D10">
-        <v>0.01969331851293532</v>
+        <v>0.01954561440838276</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.285122044333633</v>
+        <v>0.9305317590895612</v>
       </c>
       <c r="G10">
-        <v>1.206391767903654</v>
+        <v>0.78343869186088</v>
       </c>
       <c r="H10">
-        <v>0.647523698339711</v>
+        <v>0.7768410416688596</v>
       </c>
       <c r="I10">
-        <v>0.542942690562974</v>
+        <v>0.6994372011537919</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.617867574041469</v>
+        <v>0.3490220623482543</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4544888675525094</v>
+        <v>1.063617232799331</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.155643242518977</v>
+        <v>1.82266382447159</v>
       </c>
       <c r="C11">
-        <v>0.8512321972386303</v>
+        <v>0.3253189114414283</v>
       </c>
       <c r="D11">
-        <v>0.02019634646919855</v>
+        <v>0.0197422680416679</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.374098836743954</v>
+        <v>0.9468022762999055</v>
       </c>
       <c r="G11">
-        <v>1.293076290277526</v>
+        <v>0.7994331653758309</v>
       </c>
       <c r="H11">
-        <v>0.6827686100457981</v>
+        <v>0.7807892714290006</v>
       </c>
       <c r="I11">
-        <v>0.569643175213443</v>
+        <v>0.7008442238030881</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6630721467404754</v>
+        <v>0.3594480197557317</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4308003298484095</v>
+        <v>1.053955718464763</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.292602156439102</v>
+        <v>1.860090587432637</v>
       </c>
       <c r="C12">
-        <v>0.8715011395404133</v>
+        <v>0.3313693774828721</v>
       </c>
       <c r="D12">
-        <v>0.02038843965646109</v>
+        <v>0.01981687549299238</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.408389632669312</v>
+        <v>0.9530675533901274</v>
       </c>
       <c r="G12">
-        <v>1.326523932831833</v>
+        <v>0.8055871077018253</v>
       </c>
       <c r="H12">
-        <v>0.6964351124036909</v>
+        <v>0.7823585605832477</v>
       </c>
       <c r="I12">
-        <v>0.580097160469478</v>
+        <v>0.7014544142489072</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6803653851081464</v>
+        <v>0.3634239238421486</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4220763610596237</v>
+        <v>1.050372941699361</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.263071371592275</v>
+        <v>1.852028076597776</v>
       </c>
       <c r="C13">
-        <v>0.8671317147874333</v>
+        <v>0.3300669163089651</v>
       </c>
       <c r="D13">
-        <v>0.02034699331919398</v>
+        <v>0.01980080137063212</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.400976788059552</v>
+        <v>0.9517135794359746</v>
       </c>
       <c r="G13">
-        <v>1.319291498267916</v>
+        <v>0.8042574116523724</v>
       </c>
       <c r="H13">
-        <v>0.6934769893088628</v>
+        <v>0.782017282933765</v>
       </c>
       <c r="I13">
-        <v>0.5778298606586176</v>
+        <v>0.701319551248119</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.676632821125736</v>
+        <v>0.3625664033941689</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4239439849555353</v>
+        <v>1.0511411816546</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.166895680075754</v>
+        <v>1.82574204987236</v>
       </c>
       <c r="C14">
-        <v>0.8528978933651388</v>
+        <v>0.3258169639603068</v>
       </c>
       <c r="D14">
-        <v>0.02021211639744891</v>
+        <v>0.01974840329534189</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.376907581472821</v>
+        <v>0.9473156369232925</v>
       </c>
       <c r="G14">
-        <v>1.295815144033099</v>
+        <v>0.7999375018301578</v>
       </c>
       <c r="H14">
-        <v>0.6838863457171556</v>
+        <v>0.780916889684562</v>
       </c>
       <c r="I14">
-        <v>0.5704961442977137</v>
+        <v>0.7008928715377749</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.664491230206707</v>
+        <v>0.3597745618398847</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4300775652706683</v>
+        <v>1.053659440601091</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.108083531038176</v>
+        <v>1.809646933790987</v>
       </c>
       <c r="C15">
-        <v>0.8441911009403782</v>
+        <v>0.3232119456177713</v>
       </c>
       <c r="D15">
-        <v>0.02012971733047308</v>
+        <v>0.01971632585691552</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.362244390461456</v>
+        <v>0.9446353300964034</v>
       </c>
       <c r="G15">
-        <v>1.281518464288439</v>
+        <v>0.7973041111629584</v>
       </c>
       <c r="H15">
-        <v>0.6780545176473538</v>
+        <v>0.780252534885733</v>
       </c>
       <c r="I15">
-        <v>0.5660497977765218</v>
+        <v>0.7006416064406764</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6570776453074956</v>
+        <v>0.3580681032537569</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4338671648953856</v>
+        <v>1.055211826940869</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.772475026238908</v>
+        <v>1.717502363057974</v>
       </c>
       <c r="C16">
-        <v>0.7944643795197521</v>
+        <v>0.3082560888176431</v>
       </c>
       <c r="D16">
-        <v>0.01966065575788534</v>
+        <v>0.01953278245686718</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.279386945540779</v>
+        <v>0.929482960780021</v>
       </c>
       <c r="G16">
-        <v>1.200809717751412</v>
+        <v>0.7824069728010556</v>
       </c>
       <c r="H16">
-        <v>0.6452632593642988</v>
+        <v>0.776593382486169</v>
       </c>
       <c r="I16">
-        <v>0.541243798891422</v>
+        <v>0.6993560568186012</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6149366651293633</v>
+        <v>0.3483445909800054</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4560705034806425</v>
+        <v>1.064259237817293</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.567767451449583</v>
+        <v>1.661055656027258</v>
       </c>
       <c r="C17">
-        <v>0.7640952900792399</v>
+        <v>0.2990566117811397</v>
       </c>
       <c r="D17">
-        <v>0.01937550185875736</v>
+        <v>0.01942043949134842</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.229545980867286</v>
+        <v>0.9203720365046877</v>
       </c>
       <c r="G17">
-        <v>1.152326607544012</v>
+        <v>0.7734403331351416</v>
       </c>
       <c r="H17">
-        <v>0.6256803196174303</v>
+        <v>0.7744804699469228</v>
       </c>
       <c r="I17">
-        <v>0.5265990960993463</v>
+        <v>0.6987048373259839</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5893732332358326</v>
+        <v>0.3424290124747813</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4701120604443361</v>
+        <v>1.069944419645719</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.450423396166059</v>
+        <v>1.62861903592966</v>
       </c>
       <c r="C18">
-        <v>0.7466728195474843</v>
+        <v>0.2937563122814595</v>
       </c>
       <c r="D18">
-        <v>0.01921237088017591</v>
+        <v>0.01935591874021725</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.201221007957244</v>
+        <v>0.9151993061228438</v>
       </c>
       <c r="G18">
-        <v>1.124795906592084</v>
+        <v>0.7683460220845859</v>
       </c>
       <c r="H18">
-        <v>0.6146022604928874</v>
+        <v>0.7733135567890201</v>
       </c>
       <c r="I18">
-        <v>0.5183754548475079</v>
+        <v>0.6983806550595517</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5747691719793124</v>
+        <v>0.3390446914973637</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4783376700219968</v>
+        <v>1.073263905773718</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.410757982854534</v>
+        <v>1.6176417370786</v>
       </c>
       <c r="C19">
-        <v>0.7407811298043612</v>
+        <v>0.2919601770823874</v>
       </c>
       <c r="D19">
-        <v>0.01915728242559922</v>
+        <v>0.01933408981833651</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.191687479430186</v>
+        <v>0.9134595060171762</v>
       </c>
       <c r="G19">
-        <v>1.11553346378227</v>
+        <v>0.7666319836584989</v>
       </c>
       <c r="H19">
-        <v>0.610882322600645</v>
+        <v>0.7729267615473532</v>
       </c>
       <c r="I19">
-        <v>0.5156243487087053</v>
+        <v>0.6982795342370736</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5698409324663061</v>
+        <v>0.3379019361581754</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4811478755039111</v>
+        <v>1.074396327058672</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.589516942215425</v>
+        <v>1.667061402054401</v>
       </c>
       <c r="C20">
-        <v>0.7673233576476548</v>
+        <v>0.3000368440224292</v>
       </c>
       <c r="D20">
-        <v>0.01940576410355632</v>
+        <v>0.01943238871244546</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.234815747309824</v>
+        <v>0.9213349058825031</v>
       </c>
       <c r="G20">
-        <v>1.157450425787687</v>
+        <v>0.7743883149022679</v>
       </c>
       <c r="H20">
-        <v>0.6277455244965893</v>
+        <v>0.7747003843339542</v>
       </c>
       <c r="I20">
-        <v>0.5281371504247616</v>
+        <v>0.698768943685927</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5920840736571051</v>
+        <v>0.3430568556025833</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4686017472497674</v>
+        <v>1.069334096064001</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.195124129727787</v>
+        <v>1.833461678698654</v>
       </c>
       <c r="C21">
-        <v>0.8570762136632197</v>
+        <v>0.3270656531522036</v>
       </c>
       <c r="D21">
-        <v>0.0202516873358114</v>
+        <v>0.01976379016284469</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.383960511272079</v>
+        <v>0.9486045922828623</v>
       </c>
       <c r="G21">
-        <v>1.302693227857503</v>
+        <v>0.8012037204300384</v>
       </c>
       <c r="H21">
-        <v>0.6866943838444115</v>
+        <v>0.7812380866417641</v>
       </c>
       <c r="I21">
-        <v>0.5726406302296567</v>
+        <v>0.7010160945940456</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6680525734886089</v>
+        <v>0.3605938378199767</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.428269157382644</v>
+        <v>1.052917707623727</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.595226165190127</v>
+        <v>1.942475717588366</v>
       </c>
       <c r="C22">
-        <v>0.9162503133312896</v>
+        <v>0.344650029672863</v>
       </c>
       <c r="D22">
-        <v>0.02081405297331784</v>
+        <v>0.01998118719067676</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.484952481690129</v>
+        <v>0.9670332972267346</v>
       </c>
       <c r="G22">
-        <v>1.401282343573996</v>
+        <v>0.81929594905165</v>
       </c>
       <c r="H22">
-        <v>0.7271040237752686</v>
+        <v>0.7859433485556622</v>
       </c>
       <c r="I22">
-        <v>0.6037445812528688</v>
+        <v>0.7029359519661398</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7187352548278767</v>
+        <v>0.3722174584536759</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4033543547746561</v>
+        <v>1.042630716663215</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.381251695308094</v>
+        <v>1.8842691843343</v>
       </c>
       <c r="C23">
-        <v>0.8846149208873157</v>
+        <v>0.3352722999883326</v>
       </c>
       <c r="D23">
-        <v>0.02051295045899337</v>
+        <v>0.01986508672276344</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.430705254956578</v>
+        <v>0.9571418655432637</v>
       </c>
       <c r="G23">
-        <v>1.348302581212096</v>
+        <v>0.8095876686156487</v>
       </c>
       <c r="H23">
-        <v>0.7053524771369268</v>
+        <v>0.7833924060057882</v>
       </c>
       <c r="I23">
-        <v>0.5869467915967803</v>
+        <v>0.7018698771219647</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6915828566628051</v>
+        <v>0.3659988512168866</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4165137358699411</v>
+        <v>1.048080573783825</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.579682930757315</v>
+        <v>1.664346156422425</v>
       </c>
       <c r="C24">
-        <v>0.7658638338903074</v>
+        <v>0.2995937165299551</v>
       </c>
       <c r="D24">
-        <v>0.01939208004389315</v>
+        <v>0.01942698626154638</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.232432265358</v>
+        <v>0.9208993893937816</v>
       </c>
       <c r="G24">
-        <v>1.155132884893476</v>
+        <v>0.7739595432334454</v>
       </c>
       <c r="H24">
-        <v>0.6268112858344352</v>
+        <v>0.7746008120679448</v>
       </c>
       <c r="I24">
-        <v>0.5274411887936026</v>
+        <v>0.6987398048141529</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5908582155633013</v>
+        <v>0.3427729559518014</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4692840847386393</v>
+        <v>1.069609864497714</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.729932821530042</v>
+        <v>1.428274284682516</v>
       </c>
       <c r="C25">
-        <v>0.6394399300795328</v>
+        <v>0.260764432452504</v>
       </c>
       <c r="D25">
-        <v>0.01821609674757241</v>
+        <v>0.01895812049994205</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.031424757858758</v>
+        <v>0.884389101704059</v>
       </c>
       <c r="G25">
-        <v>0.9601242131813308</v>
+        <v>0.7379365817666894</v>
       </c>
       <c r="H25">
-        <v>0.5490761354478479</v>
+        <v>0.7669661955138594</v>
       </c>
       <c r="I25">
-        <v>0.4707720022050239</v>
+        <v>0.6972881597036462</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4859381331637138</v>
+        <v>0.3184141245500882</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5318578130519853</v>
+        <v>1.094725390265339</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.255432847381883</v>
+        <v>3.113369734745334</v>
       </c>
       <c r="C2">
-        <v>0.2318737208821346</v>
+        <v>0.5472376117256772</v>
       </c>
       <c r="D2">
-        <v>0.01861625622255048</v>
+        <v>0.01737138155378304</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8596978838786953</v>
+        <v>0.8922431861353459</v>
       </c>
       <c r="G2">
-        <v>0.7134475634870228</v>
+        <v>0.8256516136642489</v>
       </c>
       <c r="H2">
-        <v>0.7629230913686342</v>
+        <v>0.4967488384790641</v>
       </c>
       <c r="I2">
-        <v>0.6978593141990928</v>
+        <v>0.4343681398885053</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3010685567896303</v>
+        <v>0.4111756157411719</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.114843355685437</v>
+        <v>0.5822559498089994</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.138903253550609</v>
+        <v>2.699575201354662</v>
       </c>
       <c r="C3">
-        <v>0.2121045258404592</v>
+        <v>0.4850614248669274</v>
       </c>
       <c r="D3">
-        <v>0.01838677076083073</v>
+        <v>0.01680920303298095</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8443165825569849</v>
+        <v>0.8024277661324817</v>
       </c>
       <c r="G3">
-        <v>0.6981026244201018</v>
+        <v>0.7391519471716492</v>
       </c>
       <c r="H3">
-        <v>0.7611619914334682</v>
+        <v>0.463863078374402</v>
       </c>
       <c r="I3">
-        <v>0.6992619156683588</v>
+        <v>0.4125096302966895</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2896779345044536</v>
+        <v>0.3617439645530993</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.129490372969432</v>
+        <v>0.6188715416528972</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.067653821679755</v>
+        <v>2.447023977026561</v>
       </c>
       <c r="C4">
-        <v>0.1998722072248142</v>
+        <v>0.4469673043396654</v>
       </c>
       <c r="D4">
-        <v>0.01824699074694536</v>
+        <v>0.01646831757243206</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.835534889404812</v>
+        <v>0.7492083222364272</v>
       </c>
       <c r="G4">
-        <v>0.6892925885629353</v>
+        <v>0.6880126585974438</v>
       </c>
       <c r="H4">
-        <v>0.7605618622210244</v>
+        <v>0.4447972619998382</v>
       </c>
       <c r="I4">
-        <v>0.7006216511125416</v>
+        <v>0.4003239575912616</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2828630492595465</v>
+        <v>0.3319074218147335</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.138982913117953</v>
+        <v>0.6424956428746995</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.03869535343938</v>
+        <v>2.344424936204632</v>
       </c>
       <c r="C5">
-        <v>0.1948638461757639</v>
+        <v>0.4314548673505954</v>
       </c>
       <c r="D5">
-        <v>0.0181903196149733</v>
+        <v>0.01633038594240332</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8321223300683585</v>
+        <v>0.7279648834573038</v>
       </c>
       <c r="G5">
-        <v>0.685855581282155</v>
+        <v>0.6676256557948079</v>
       </c>
       <c r="H5">
-        <v>0.7604381048565472</v>
+        <v>0.437291024070575</v>
       </c>
       <c r="I5">
-        <v>0.7013007945368983</v>
+        <v>0.3956478904700447</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2801308851404372</v>
+        <v>0.3198652635787909</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.142976647556381</v>
+        <v>0.6523997671297366</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033891450160922</v>
+        <v>2.327405819556589</v>
       </c>
       <c r="C6">
-        <v>0.1940307877740395</v>
+        <v>0.4288794529378208</v>
       </c>
       <c r="D6">
-        <v>0.0181809271759974</v>
+        <v>0.01630753920372285</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8315656906901268</v>
+        <v>0.724463093512</v>
       </c>
       <c r="G6">
-        <v>0.6852940987292584</v>
+        <v>0.6642665388653199</v>
       </c>
       <c r="H6">
-        <v>0.7604248452672806</v>
+        <v>0.4360599583511373</v>
       </c>
       <c r="I6">
-        <v>0.7014211085701731</v>
+        <v>0.3948883404184329</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.279679925099245</v>
+        <v>0.317872343924563</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.143647378464173</v>
+        <v>0.6540607945235841</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.067262967883437</v>
+        <v>2.445639086732399</v>
       </c>
       <c r="C7">
-        <v>0.1998047581916467</v>
+        <v>0.446758064766442</v>
       </c>
       <c r="D7">
-        <v>0.01824622527409758</v>
+        <v>0.01646645352186127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8354881948105799</v>
+        <v>0.7489200804578502</v>
       </c>
       <c r="G7">
-        <v>0.6892456166856959</v>
+        <v>0.6877359345827045</v>
       </c>
       <c r="H7">
-        <v>0.7605597043389025</v>
+        <v>0.4446949898645585</v>
       </c>
       <c r="I7">
-        <v>0.7006303044221838</v>
+        <v>0.4002597483645687</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2828260203797157</v>
+        <v>0.3317445619817505</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.139036266198822</v>
+        <v>0.642628104154511</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.215191553143768</v>
+        <v>2.970337447303962</v>
       </c>
       <c r="C8">
-        <v>0.2250768165724537</v>
+        <v>0.5257762481085138</v>
       </c>
       <c r="D8">
-        <v>0.01853690049803802</v>
+        <v>0.01717658762383678</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8542565814577756</v>
+        <v>0.8608493773490693</v>
       </c>
       <c r="G8">
-        <v>0.7080292213697845</v>
+        <v>0.7953904069634063</v>
       </c>
       <c r="H8">
-        <v>0.7622158689969467</v>
+        <v>0.4851636762725065</v>
       </c>
       <c r="I8">
-        <v>0.6982392662588879</v>
+        <v>0.4265618384214065</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2971038806215773</v>
+        <v>0.3940166958559956</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.119789985597755</v>
+        <v>0.5946377452984457</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.507643121222429</v>
+        <v>4.014527277676109</v>
       </c>
       <c r="C9">
-        <v>0.2738905910703693</v>
+        <v>0.6818544398522874</v>
       </c>
       <c r="D9">
-        <v>0.01911554982968511</v>
+        <v>0.01860850683747017</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8963452981688533</v>
+        <v>1.097623561778335</v>
       </c>
       <c r="G9">
-        <v>0.7497525581070477</v>
+        <v>1.024248653796988</v>
       </c>
       <c r="H9">
-        <v>0.7692920135211097</v>
+        <v>0.5744298792100295</v>
       </c>
       <c r="I9">
-        <v>0.6975213846666861</v>
+        <v>0.4889625646559352</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3265273782536298</v>
+        <v>0.5208488463141236</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.086012522016407</v>
+        <v>0.5100740862528816</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.723947375444482</v>
+        <v>4.795890009675645</v>
       </c>
       <c r="C10">
-        <v>0.309304591979668</v>
+        <v>0.7979361748576537</v>
       </c>
       <c r="D10">
-        <v>0.01954561440838276</v>
+        <v>0.01969331851304545</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9305317590895612</v>
+        <v>1.285122044333619</v>
       </c>
       <c r="G10">
-        <v>0.78343869186088</v>
+        <v>1.206391767903739</v>
       </c>
       <c r="H10">
-        <v>0.7768410416688596</v>
+        <v>0.6475236983395973</v>
       </c>
       <c r="I10">
-        <v>0.6994372011537919</v>
+        <v>0.5429426905629597</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3490220623482543</v>
+        <v>0.6178675740414832</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.063617232799331</v>
+        <v>0.4544888675525662</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.82266382447159</v>
+        <v>5.155643242518977</v>
       </c>
       <c r="C11">
-        <v>0.3253189114414283</v>
+        <v>0.8512321972384598</v>
       </c>
       <c r="D11">
-        <v>0.0197422680416679</v>
+        <v>0.02019634646928026</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9468022762999055</v>
+        <v>1.374098836743968</v>
       </c>
       <c r="G11">
-        <v>0.7994331653758309</v>
+        <v>1.293076290277497</v>
       </c>
       <c r="H11">
-        <v>0.7807892714290006</v>
+        <v>0.6827686100459402</v>
       </c>
       <c r="I11">
-        <v>0.7008442238030881</v>
+        <v>0.5696431752134714</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3594480197557317</v>
+        <v>0.6630721467404328</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.053955718464763</v>
+        <v>0.430800329848406</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.860090587432637</v>
+        <v>5.292602156439159</v>
       </c>
       <c r="C12">
-        <v>0.3313693774828721</v>
+        <v>0.8715011395405554</v>
       </c>
       <c r="D12">
-        <v>0.01981687549299238</v>
+        <v>0.02038843965637227</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9530675533901274</v>
+        <v>1.408389632669326</v>
       </c>
       <c r="G12">
-        <v>0.8055871077018253</v>
+        <v>1.326523932831805</v>
       </c>
       <c r="H12">
-        <v>0.7823585605832477</v>
+        <v>0.6964351124036625</v>
       </c>
       <c r="I12">
-        <v>0.7014544142489072</v>
+        <v>0.580097160469478</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3634239238421486</v>
+        <v>0.6803653851082316</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.050372941699361</v>
+        <v>0.422076361059613</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.852028076597776</v>
+        <v>5.263071371592275</v>
       </c>
       <c r="C13">
-        <v>0.3300669163089651</v>
+        <v>0.8671317147874049</v>
       </c>
       <c r="D13">
-        <v>0.01980080137063212</v>
+        <v>0.0203469933190803</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9517135794359746</v>
+        <v>1.400976788059552</v>
       </c>
       <c r="G13">
-        <v>0.8042574116523724</v>
+        <v>1.319291498267916</v>
       </c>
       <c r="H13">
-        <v>0.782017282933765</v>
+        <v>0.6934769893087491</v>
       </c>
       <c r="I13">
-        <v>0.701319551248119</v>
+        <v>0.5778298606586318</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3625664033941689</v>
+        <v>0.6766328211257786</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.0511411816546</v>
+        <v>0.4239439849555282</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.82574204987236</v>
+        <v>5.16689568007564</v>
       </c>
       <c r="C14">
-        <v>0.3258169639603068</v>
+        <v>0.852897893365224</v>
       </c>
       <c r="D14">
-        <v>0.01974840329534189</v>
+        <v>0.02021211639745246</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9473156369232925</v>
+        <v>1.376907581472821</v>
       </c>
       <c r="G14">
-        <v>0.7999375018301578</v>
+        <v>1.295815144033099</v>
       </c>
       <c r="H14">
-        <v>0.780916889684562</v>
+        <v>0.6838863457171556</v>
       </c>
       <c r="I14">
-        <v>0.7008928715377749</v>
+        <v>0.5704961442977137</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3597745618398847</v>
+        <v>0.6644912302066359</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.053659440601091</v>
+        <v>0.430077565270615</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.809646933790987</v>
+        <v>5.108083531038346</v>
       </c>
       <c r="C15">
-        <v>0.3232119456177713</v>
+        <v>0.8441911009402929</v>
       </c>
       <c r="D15">
-        <v>0.01971632585691552</v>
+        <v>0.02012971733047664</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9446353300964034</v>
+        <v>1.362244390461427</v>
       </c>
       <c r="G15">
-        <v>0.7973041111629584</v>
+        <v>1.281518464288581</v>
       </c>
       <c r="H15">
-        <v>0.780252534885733</v>
+        <v>0.6780545176474675</v>
       </c>
       <c r="I15">
-        <v>0.7006416064406764</v>
+        <v>0.5660497977765218</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3580681032537569</v>
+        <v>0.6570776453074956</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.055211826940869</v>
+        <v>0.4338671648953216</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.717502363057974</v>
+        <v>4.772475026238851</v>
       </c>
       <c r="C16">
-        <v>0.3082560888176431</v>
+        <v>0.7944643795197521</v>
       </c>
       <c r="D16">
-        <v>0.01953278245686718</v>
+        <v>0.01966065575787468</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.929482960780021</v>
+        <v>1.279386945540779</v>
       </c>
       <c r="G16">
-        <v>0.7824069728010556</v>
+        <v>1.200809717751383</v>
       </c>
       <c r="H16">
-        <v>0.776593382486169</v>
+        <v>0.6452632593642988</v>
       </c>
       <c r="I16">
-        <v>0.6993560568186012</v>
+        <v>0.5412437988914078</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3483445909800054</v>
+        <v>0.6149366651294059</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.064259237817293</v>
+        <v>0.4560705034806212</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.661055656027258</v>
+        <v>4.567767451449527</v>
       </c>
       <c r="C17">
-        <v>0.2990566117811397</v>
+        <v>0.7640952900794957</v>
       </c>
       <c r="D17">
-        <v>0.01942043949134842</v>
+        <v>0.0193755018586792</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9203720365046877</v>
+        <v>1.229545980867286</v>
       </c>
       <c r="G17">
-        <v>0.7734403331351416</v>
+        <v>1.152326607543898</v>
       </c>
       <c r="H17">
-        <v>0.7744804699469228</v>
+        <v>0.6256803196174303</v>
       </c>
       <c r="I17">
-        <v>0.6987048373259839</v>
+        <v>0.5265990960993321</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3424290124747813</v>
+        <v>0.5893732332357189</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.069944419645719</v>
+        <v>0.4701120604443858</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.62861903592966</v>
+        <v>4.450423396166116</v>
       </c>
       <c r="C18">
-        <v>0.2937563122814595</v>
+        <v>0.7466728195473706</v>
       </c>
       <c r="D18">
-        <v>0.01935591874021725</v>
+        <v>0.01921237088021144</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9151993061228438</v>
+        <v>1.201221007957258</v>
       </c>
       <c r="G18">
-        <v>0.7683460220845859</v>
+        <v>1.124795906592169</v>
       </c>
       <c r="H18">
-        <v>0.7733135567890201</v>
+        <v>0.6146022604928874</v>
       </c>
       <c r="I18">
-        <v>0.6983806550595517</v>
+        <v>0.5183754548475079</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3390446914973637</v>
+        <v>0.5747691719792556</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.073263905773718</v>
+        <v>0.4783376700219826</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.6176417370786</v>
+        <v>4.410757982854648</v>
       </c>
       <c r="C19">
-        <v>0.2919601770823874</v>
+        <v>0.7407811298045033</v>
       </c>
       <c r="D19">
-        <v>0.01933408981833651</v>
+        <v>0.01915728242559922</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9134595060171762</v>
+        <v>1.1916874794302</v>
       </c>
       <c r="G19">
-        <v>0.7666319836584989</v>
+        <v>1.115533463782185</v>
       </c>
       <c r="H19">
-        <v>0.7729267615473532</v>
+        <v>0.6108823226007587</v>
       </c>
       <c r="I19">
-        <v>0.6982795342370736</v>
+        <v>0.5156243487086911</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3379019361581754</v>
+        <v>0.5698409324662776</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.074396327058672</v>
+        <v>0.481147875503968</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.667061402054401</v>
+        <v>4.589516942215425</v>
       </c>
       <c r="C20">
-        <v>0.3000368440224292</v>
+        <v>0.7673233576475695</v>
       </c>
       <c r="D20">
-        <v>0.01943238871244546</v>
+        <v>0.01940576410355632</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9213349058825031</v>
+        <v>1.23481574730981</v>
       </c>
       <c r="G20">
-        <v>0.7743883149022679</v>
+        <v>1.157450425787687</v>
       </c>
       <c r="H20">
-        <v>0.7747003843339542</v>
+        <v>0.6277455244965608</v>
       </c>
       <c r="I20">
-        <v>0.698768943685927</v>
+        <v>0.5281371504247616</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3430568556025833</v>
+        <v>0.5920840736571193</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.069334096064001</v>
+        <v>0.4686017472497639</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.833461678698654</v>
+        <v>5.195124129727446</v>
       </c>
       <c r="C21">
-        <v>0.3270656531522036</v>
+        <v>0.8570762136633903</v>
       </c>
       <c r="D21">
-        <v>0.01976379016284469</v>
+        <v>0.02025168733596772</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9486045922828623</v>
+        <v>1.383960511272079</v>
       </c>
       <c r="G21">
-        <v>0.8012037204300384</v>
+        <v>1.302693227857503</v>
       </c>
       <c r="H21">
-        <v>0.7812380866417641</v>
+        <v>0.6866943838444115</v>
       </c>
       <c r="I21">
-        <v>0.7010160945940456</v>
+        <v>0.5726406302296567</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3605938378199767</v>
+        <v>0.6680525734885663</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.052917707623727</v>
+        <v>0.4282691573826334</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.942475717588366</v>
+        <v>5.595226165190127</v>
       </c>
       <c r="C22">
-        <v>0.344650029672863</v>
+        <v>0.9162503133310906</v>
       </c>
       <c r="D22">
-        <v>0.01998118719067676</v>
+        <v>0.02081405297331074</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9670332972267346</v>
+        <v>1.484952481690129</v>
       </c>
       <c r="G22">
-        <v>0.81929594905165</v>
+        <v>1.401282343573968</v>
       </c>
       <c r="H22">
-        <v>0.7859433485556622</v>
+        <v>0.7271040237752686</v>
       </c>
       <c r="I22">
-        <v>0.7029359519661398</v>
+        <v>0.6037445812528617</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3722174584536759</v>
+        <v>0.7187352548278341</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.042630716663215</v>
+        <v>0.4033543547747058</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.8842691843343</v>
+        <v>5.381251695308322</v>
       </c>
       <c r="C23">
-        <v>0.3352722999883326</v>
+        <v>0.8846149208873157</v>
       </c>
       <c r="D23">
-        <v>0.01986508672276344</v>
+        <v>0.02051295045898271</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9571418655432637</v>
+        <v>1.430705254956564</v>
       </c>
       <c r="G23">
-        <v>0.8095876686156487</v>
+        <v>1.348302581212124</v>
       </c>
       <c r="H23">
-        <v>0.7833924060057882</v>
+        <v>0.7053524771369268</v>
       </c>
       <c r="I23">
-        <v>0.7018698771219647</v>
+        <v>0.5869467915968016</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3659988512168866</v>
+        <v>0.6915828566628335</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.048080573783825</v>
+        <v>0.4165137358699234</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.664346156422425</v>
+        <v>4.579682930757315</v>
       </c>
       <c r="C24">
-        <v>0.2995937165299551</v>
+        <v>0.7658638338903927</v>
       </c>
       <c r="D24">
-        <v>0.01942698626154638</v>
+        <v>0.01939208004381143</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9208993893937816</v>
+        <v>1.232432265357986</v>
       </c>
       <c r="G24">
-        <v>0.7739595432334454</v>
+        <v>1.155132884893561</v>
       </c>
       <c r="H24">
-        <v>0.7746008120679448</v>
+        <v>0.6268112858345489</v>
       </c>
       <c r="I24">
-        <v>0.6987398048141529</v>
+        <v>0.5274411887936168</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3427729559518014</v>
+        <v>0.5908582155633013</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.069609864497714</v>
+        <v>0.4692840847386286</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.428274284682516</v>
+        <v>3.729932821530042</v>
       </c>
       <c r="C25">
-        <v>0.260764432452504</v>
+        <v>0.6394399300794475</v>
       </c>
       <c r="D25">
-        <v>0.01895812049994205</v>
+        <v>0.01821609674757241</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.884389101704059</v>
+        <v>1.031424757858744</v>
       </c>
       <c r="G25">
-        <v>0.7379365817666894</v>
+        <v>0.9601242131813592</v>
       </c>
       <c r="H25">
-        <v>0.7669661955138594</v>
+        <v>0.5490761354478622</v>
       </c>
       <c r="I25">
-        <v>0.6972881597036462</v>
+        <v>0.4707720022050239</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3184141245500882</v>
+        <v>0.4859381331636428</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.094725390265339</v>
+        <v>0.5318578130519853</v>
       </c>
       <c r="O25">
         <v>0</v>
